--- a/classification/droptc/message/neo-bert/unfreeze/37622020/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/37622020/prediction.xlsx
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'SoftwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/neo-bert/unfreeze/37622020/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/37622020/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['HardwareFault', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
